--- a/db/films.xlsx
+++ b/db/films.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Фильмы" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,9 +13,9 @@
     <sheet name="Расписание_фильмов" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Зал_1" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Зал_2" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="зал_3" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="зал_4" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="зал_5" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Зал_3" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Зал_4" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Зал_5" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="26">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -391,10 +391,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -413,6 +413,9 @@
       <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -422,6 +425,9 @@
         <v>50</v>
       </c>
       <c r="C2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -485,10 +491,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -519,6 +525,9 @@
       <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -534,10 +543,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>45038</v>
+        <v>45037</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>0.375</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -562,7 +574,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
@@ -594,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>45038</v>
+        <v>45039</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>0.6875</v>
@@ -634,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>45039</v>
+        <v>45040</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>0.895833333333333</v>
@@ -654,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>45039</v>
+        <v>45041</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>0.791666666666667</v>

--- a/db/films.xlsx
+++ b/db/films.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Фильмы" sheetId="1" state="visible" r:id="rId1"/>
@@ -96,8 +96,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
@@ -486,18 +486,18 @@
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="31.88" customWidth="1" style="7" min="2" max="2"/>
     <col width="116.37" customWidth="1" style="7" min="3" max="3"/>
     <col width="15.76" customWidth="1" style="7" min="4" max="4"/>
     <col width="28.97" customWidth="1" style="7" min="5" max="5"/>
     <col width="25.38" customWidth="1" style="7" min="6" max="6"/>
-    <col width="22.25" customWidth="1" style="7" min="7" max="7"/>
+    <col width="22.24" customWidth="1" style="7" min="7" max="7"/>
     <col width="14.83" customWidth="1" style="7" min="8" max="8"/>
   </cols>
   <sheetData>
@@ -685,14 +685,14 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="19.12" customWidth="1" style="7" min="2" max="2"/>
-    <col width="22.25" customWidth="1" style="7" min="3" max="3"/>
+    <col width="22.24" customWidth="1" style="7" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" s="8">
@@ -798,11 +798,11 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.61" customWidth="1" style="7" min="2" max="2"/>
     <col width="12.75" customWidth="1" style="7" min="3" max="3"/>
@@ -1012,35 +1012,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="8">
+    <row r="1" ht="12.75" customHeight="1" s="8">
       <c r="A1" s="12" t="n">
         <v>0.375</v>
       </c>
-      <c r="D1" s="12" t="n">
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="E1" s="12" t="n">
         <v>0.4791666666666667</v>
       </c>
-      <c r="G1" s="12" t="n">
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="I1" s="12" t="n">
         <v>0.5833333333333334</v>
       </c>
-      <c r="J1" s="12" t="n">
+      <c r="L1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="M1" s="12" t="n">
         <v>0.6875</v>
       </c>
-      <c r="M1" s="12" t="n">
+      <c r="P1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="Q1" s="12" t="n">
         <v>0.7916666666666666</v>
       </c>
-      <c r="P1" s="12" t="n">
+      <c r="T1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="U1" s="12" t="n">
         <v>0.8958333333333334</v>
       </c>
-    </row>
-    <row r="2" ht="12.8" customHeight="1" s="8">
+      <c r="X1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="8">
       <c r="A2" s="7" t="inlineStr">
         <is>
           <t>№ ряда</t>
@@ -1056,50 +1086,44 @@
           <t>Дата</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
-        <is>
-          <t>№ ряда</t>
-        </is>
+      <c r="D2" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="E2" s="7" t="inlineStr">
         <is>
-          <t>№ места</t>
+          <t>№ ряда</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
         <is>
-          <t>Дата</t>
+          <t>№ места</t>
         </is>
       </c>
       <c r="G2" s="7" t="inlineStr">
         <is>
-          <t>№ ряда</t>
-        </is>
-      </c>
-      <c r="H2" s="7" t="inlineStr">
-        <is>
-          <t>№ места</t>
-        </is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="I2" s="7" t="inlineStr">
         <is>
-          <t>Дата</t>
+          <t>№ ряда</t>
         </is>
       </c>
       <c r="J2" s="7" t="inlineStr">
         <is>
-          <t>№ ряда</t>
+          <t>№ места</t>
         </is>
       </c>
       <c r="K2" s="7" t="inlineStr">
         <is>
-          <t>№ места</t>
-        </is>
-      </c>
-      <c r="L2" s="7" t="inlineStr">
-        <is>
-          <t>Дата</t>
-        </is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="L2" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="M2" s="7" t="inlineStr">
         <is>
@@ -1116,30 +1140,54 @@
           <t>Дата</t>
         </is>
       </c>
-      <c r="P2" s="7" t="inlineStr">
-        <is>
-          <t>№ ряда</t>
-        </is>
+      <c r="P2" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="Q2" s="7" t="inlineStr">
         <is>
-          <t>№ места</t>
+          <t>№ ряда</t>
         </is>
       </c>
       <c r="R2" s="7" t="inlineStr">
         <is>
-          <t>Дата</t>
-        </is>
+          <t>№ места</t>
+        </is>
+      </c>
+      <c r="S2" s="7" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="T2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="7" t="inlineStr">
+        <is>
+          <t>№ ряда</t>
+        </is>
+      </c>
+      <c r="V2" s="7" t="inlineStr">
+        <is>
+          <t>№ места</t>
+        </is>
+      </c>
+      <c r="W2" s="7" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="X2" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="P1:R1"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1161,35 +1209,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="8">
+    <row r="1" ht="12.75" customHeight="1" s="8">
       <c r="A1" s="12" t="n">
         <v>0.375</v>
       </c>
-      <c r="D1" s="12" t="n">
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="E1" s="12" t="n">
         <v>0.4791666666666667</v>
       </c>
-      <c r="G1" s="12" t="n">
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="I1" s="12" t="n">
         <v>0.5833333333333334</v>
       </c>
-      <c r="J1" s="12" t="n">
+      <c r="L1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="M1" s="12" t="n">
         <v>0.6875</v>
       </c>
-      <c r="M1" s="12" t="n">
+      <c r="P1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="Q1" s="12" t="n">
         <v>0.7916666666666666</v>
       </c>
-      <c r="P1" s="12" t="n">
+      <c r="T1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="U1" s="12" t="n">
         <v>0.8958333333333334</v>
       </c>
-    </row>
-    <row r="2" ht="12.8" customHeight="1" s="8">
+      <c r="X1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="8">
       <c r="A2" s="7" t="inlineStr">
         <is>
           <t>№ ряда</t>
@@ -1205,50 +1283,44 @@
           <t>Дата</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
-        <is>
-          <t>№ ряда</t>
-        </is>
+      <c r="D2" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="E2" s="7" t="inlineStr">
         <is>
-          <t>№ места</t>
+          <t>№ ряда</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
         <is>
-          <t>Дата</t>
+          <t>№ места</t>
         </is>
       </c>
       <c r="G2" s="7" t="inlineStr">
         <is>
-          <t>№ ряда</t>
-        </is>
-      </c>
-      <c r="H2" s="7" t="inlineStr">
-        <is>
-          <t>№ места</t>
-        </is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="I2" s="7" t="inlineStr">
         <is>
-          <t>Дата</t>
+          <t>№ ряда</t>
         </is>
       </c>
       <c r="J2" s="7" t="inlineStr">
         <is>
-          <t>№ ряда</t>
+          <t>№ места</t>
         </is>
       </c>
       <c r="K2" s="7" t="inlineStr">
         <is>
-          <t>№ места</t>
-        </is>
-      </c>
-      <c r="L2" s="7" t="inlineStr">
-        <is>
-          <t>Дата</t>
-        </is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="L2" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="M2" s="7" t="inlineStr">
         <is>
@@ -1265,30 +1337,71 @@
           <t>Дата</t>
         </is>
       </c>
-      <c r="P2" s="7" t="inlineStr">
-        <is>
-          <t>№ ряда</t>
-        </is>
+      <c r="P2" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="Q2" s="7" t="inlineStr">
         <is>
-          <t>№ места</t>
+          <t>№ ряда</t>
         </is>
       </c>
       <c r="R2" s="7" t="inlineStr">
         <is>
-          <t>Дата</t>
+          <t>№ места</t>
+        </is>
+      </c>
+      <c r="S2" s="7" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="T2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="7" t="inlineStr">
+        <is>
+          <t>№ ряда</t>
+        </is>
+      </c>
+      <c r="V2" s="7" t="inlineStr">
+        <is>
+          <t>№ места</t>
+        </is>
+      </c>
+      <c r="W2" s="7" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="X2" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="7" t="inlineStr">
+        <is>
+          <t>22.04.23</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="P1:R1"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1310,35 +1423,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="8">
+    <row r="1" ht="12.75" customHeight="1" s="8">
       <c r="A1" s="12" t="n">
         <v>0.375</v>
       </c>
-      <c r="D1" s="12" t="n">
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="E1" s="12" t="n">
         <v>0.4791666666666667</v>
       </c>
-      <c r="G1" s="12" t="n">
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="I1" s="12" t="n">
         <v>0.5833333333333334</v>
       </c>
-      <c r="J1" s="12" t="n">
+      <c r="L1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="M1" s="12" t="n">
         <v>0.6875</v>
       </c>
-      <c r="M1" s="12" t="n">
+      <c r="P1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="Q1" s="12" t="n">
         <v>0.7916666666666666</v>
       </c>
-      <c r="P1" s="12" t="n">
+      <c r="T1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="U1" s="12" t="n">
         <v>0.8958333333333334</v>
       </c>
-    </row>
-    <row r="2" ht="12.8" customHeight="1" s="8">
+      <c r="X1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="8">
       <c r="A2" s="7" t="inlineStr">
         <is>
           <t>№ ряда</t>
@@ -1354,50 +1497,44 @@
           <t>Дата</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
-        <is>
-          <t>№ ряда</t>
-        </is>
+      <c r="D2" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="E2" s="7" t="inlineStr">
         <is>
-          <t>№ места</t>
+          <t>№ ряда</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
         <is>
-          <t>Дата</t>
+          <t>№ места</t>
         </is>
       </c>
       <c r="G2" s="7" t="inlineStr">
         <is>
-          <t>№ ряда</t>
-        </is>
-      </c>
-      <c r="H2" s="7" t="inlineStr">
-        <is>
-          <t>№ места</t>
-        </is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="I2" s="7" t="inlineStr">
         <is>
-          <t>Дата</t>
+          <t>№ ряда</t>
         </is>
       </c>
       <c r="J2" s="7" t="inlineStr">
         <is>
-          <t>№ ряда</t>
+          <t>№ места</t>
         </is>
       </c>
       <c r="K2" s="7" t="inlineStr">
         <is>
-          <t>№ места</t>
-        </is>
-      </c>
-      <c r="L2" s="7" t="inlineStr">
-        <is>
-          <t>Дата</t>
-        </is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="L2" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="M2" s="7" t="inlineStr">
         <is>
@@ -1414,30 +1551,54 @@
           <t>Дата</t>
         </is>
       </c>
-      <c r="P2" s="7" t="inlineStr">
-        <is>
-          <t>№ ряда</t>
-        </is>
+      <c r="P2" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="Q2" s="7" t="inlineStr">
         <is>
-          <t>№ места</t>
+          <t>№ ряда</t>
         </is>
       </c>
       <c r="R2" s="7" t="inlineStr">
         <is>
-          <t>Дата</t>
-        </is>
+          <t>№ места</t>
+        </is>
+      </c>
+      <c r="S2" s="7" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="T2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="7" t="inlineStr">
+        <is>
+          <t>№ ряда</t>
+        </is>
+      </c>
+      <c r="V2" s="7" t="inlineStr">
+        <is>
+          <t>№ места</t>
+        </is>
+      </c>
+      <c r="W2" s="7" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="X2" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="P1:R1"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1459,35 +1620,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="8">
+    <row r="1" ht="12.75" customHeight="1" s="8">
       <c r="A1" s="12" t="n">
         <v>0.375</v>
       </c>
-      <c r="D1" s="12" t="n">
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="E1" s="12" t="n">
         <v>0.4791666666666667</v>
       </c>
-      <c r="G1" s="12" t="n">
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="I1" s="12" t="n">
         <v>0.5833333333333334</v>
       </c>
-      <c r="J1" s="12" t="n">
+      <c r="L1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="M1" s="12" t="n">
         <v>0.6875</v>
       </c>
-      <c r="M1" s="12" t="n">
+      <c r="P1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="Q1" s="12" t="n">
         <v>0.7916666666666666</v>
       </c>
-      <c r="P1" s="12" t="n">
+      <c r="T1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="U1" s="12" t="n">
         <v>0.8958333333333334</v>
       </c>
-    </row>
-    <row r="2" ht="12.8" customHeight="1" s="8">
+      <c r="X1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="8">
       <c r="A2" s="7" t="inlineStr">
         <is>
           <t>№ ряда</t>
@@ -1503,50 +1694,44 @@
           <t>Дата</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
-        <is>
-          <t>№ ряда</t>
-        </is>
+      <c r="D2" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="E2" s="7" t="inlineStr">
         <is>
-          <t>№ места</t>
+          <t>№ ряда</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
         <is>
-          <t>Дата</t>
+          <t>№ места</t>
         </is>
       </c>
       <c r="G2" s="7" t="inlineStr">
         <is>
-          <t>№ ряда</t>
-        </is>
-      </c>
-      <c r="H2" s="7" t="inlineStr">
-        <is>
-          <t>№ места</t>
-        </is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="I2" s="7" t="inlineStr">
         <is>
-          <t>Дата</t>
+          <t>№ ряда</t>
         </is>
       </c>
       <c r="J2" s="7" t="inlineStr">
         <is>
-          <t>№ ряда</t>
+          <t>№ места</t>
         </is>
       </c>
       <c r="K2" s="7" t="inlineStr">
         <is>
-          <t>№ места</t>
-        </is>
-      </c>
-      <c r="L2" s="7" t="inlineStr">
-        <is>
-          <t>Дата</t>
-        </is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="L2" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="M2" s="7" t="inlineStr">
         <is>
@@ -1563,30 +1748,54 @@
           <t>Дата</t>
         </is>
       </c>
-      <c r="P2" s="7" t="inlineStr">
-        <is>
-          <t>№ ряда</t>
-        </is>
+      <c r="P2" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="Q2" s="7" t="inlineStr">
         <is>
-          <t>№ места</t>
+          <t>№ ряда</t>
         </is>
       </c>
       <c r="R2" s="7" t="inlineStr">
         <is>
-          <t>Дата</t>
-        </is>
+          <t>№ места</t>
+        </is>
+      </c>
+      <c r="S2" s="7" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="T2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="7" t="inlineStr">
+        <is>
+          <t>№ ряда</t>
+        </is>
+      </c>
+      <c r="V2" s="7" t="inlineStr">
+        <is>
+          <t>№ места</t>
+        </is>
+      </c>
+      <c r="W2" s="7" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="X2" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="P1:R1"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1608,35 +1817,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="8">
+    <row r="1" ht="12.75" customHeight="1" s="8">
       <c r="A1" s="12" t="n">
         <v>0.375</v>
       </c>
-      <c r="D1" s="12" t="n">
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="E1" s="12" t="n">
         <v>0.4791666666666667</v>
       </c>
-      <c r="G1" s="12" t="n">
+      <c r="H1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="I1" s="12" t="n">
         <v>0.5833333333333334</v>
       </c>
-      <c r="J1" s="12" t="n">
+      <c r="L1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="M1" s="12" t="n">
         <v>0.6875</v>
       </c>
-      <c r="M1" s="12" t="n">
+      <c r="P1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="Q1" s="12" t="n">
         <v>0.7916666666666666</v>
       </c>
-      <c r="P1" s="12" t="n">
+      <c r="T1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+      <c r="U1" s="12" t="n">
         <v>0.8958333333333334</v>
       </c>
-    </row>
-    <row r="2" ht="12.8" customHeight="1" s="8">
+      <c r="X1" s="7" t="inlineStr">
+        <is>
+          <t>Всего</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="8">
       <c r="A2" s="7" t="inlineStr">
         <is>
           <t>№ ряда</t>
@@ -1652,50 +1891,44 @@
           <t>Дата</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
-        <is>
-          <t>№ ряда</t>
-        </is>
+      <c r="D2" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="E2" s="7" t="inlineStr">
         <is>
-          <t>№ места</t>
+          <t>№ ряда</t>
         </is>
       </c>
       <c r="F2" s="7" t="inlineStr">
         <is>
-          <t>Дата</t>
+          <t>№ места</t>
         </is>
       </c>
       <c r="G2" s="7" t="inlineStr">
         <is>
-          <t>№ ряда</t>
-        </is>
-      </c>
-      <c r="H2" s="7" t="inlineStr">
-        <is>
-          <t>№ места</t>
-        </is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="I2" s="7" t="inlineStr">
         <is>
-          <t>Дата</t>
+          <t>№ ряда</t>
         </is>
       </c>
       <c r="J2" s="7" t="inlineStr">
         <is>
-          <t>№ ряда</t>
+          <t>№ места</t>
         </is>
       </c>
       <c r="K2" s="7" t="inlineStr">
         <is>
-          <t>№ места</t>
-        </is>
-      </c>
-      <c r="L2" s="7" t="inlineStr">
-        <is>
-          <t>Дата</t>
-        </is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="L2" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="M2" s="7" t="inlineStr">
         <is>
@@ -1712,30 +1945,54 @@
           <t>Дата</t>
         </is>
       </c>
-      <c r="P2" s="7" t="inlineStr">
-        <is>
-          <t>№ ряда</t>
-        </is>
+      <c r="P2" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="Q2" s="7" t="inlineStr">
         <is>
-          <t>№ места</t>
+          <t>№ ряда</t>
         </is>
       </c>
       <c r="R2" s="7" t="inlineStr">
         <is>
-          <t>Дата</t>
-        </is>
+          <t>№ места</t>
+        </is>
+      </c>
+      <c r="S2" s="7" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="T2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="7" t="inlineStr">
+        <is>
+          <t>№ ряда</t>
+        </is>
+      </c>
+      <c r="V2" s="7" t="inlineStr">
+        <is>
+          <t>№ места</t>
+        </is>
+      </c>
+      <c r="W2" s="7" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="X2" s="7" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="P1:R1"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/db/films.xlsx
+++ b/db/films.xlsx
@@ -490,7 +490,7 @@
       <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="31.88" customWidth="1" style="7" min="2" max="2"/>
     <col width="116.37" customWidth="1" style="7" min="3" max="3"/>
@@ -689,7 +689,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="19.12" customWidth="1" style="7" min="2" max="2"/>
     <col width="22.24" customWidth="1" style="7" min="3" max="3"/>
@@ -802,7 +802,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="17.61" customWidth="1" style="7" min="2" max="2"/>
     <col width="12.75" customWidth="1" style="7" min="3" max="3"/>
